--- a/tblSqlToSend.xlsx
+++ b/tblSqlToSend.xlsx
@@ -439,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -460,35 +460,18 @@
     <row outlineLevel="0" r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>DROP TABLE IF EXISTS dbo.dict_AAAA_AAAH</t>
+          <t>DROP VIEW IF EXISTS ViewTempForAccessQuery;</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>CREATE TABLE dbo.dict_AAAA_AAAH(AAA CHAR(30),AAB CHAR(20),AAC CHAR(20),AAD CHAR,AAE INTEGER,AAF SMALLINT,CONSTRAINT FK_dict_AAAA_AAAH_AAA FOREIGN KEY(AAA) REFERENCES dbo.dict_AAAA_AAAI(AAA),CONSTRAINT FK_dict_AAAA_AAAH_AAF FOREIGN KEY(AAF) REFERENCES dbo.dict_AAAA_AAAB(AAA))</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>CREATE Unique INDEX idx_dict_AAAA_AAAH_AAA ON dbo.dict_AAAA_AAAH (AAA)</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>CREATE  INDEX idx_dict_AAAA_AAAH_AAC ON dbo.dict_AAAA_AAAH (AAC)</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>CREATE  INDEX idx_dict_AAAA_AAAH_AAE ON dbo.dict_AAAA_AAAH (AAE)</t>
+          <t>CREATE VIEW ViewTempForAccessQuery
+AS
+SELECT dict_AAAA_AAAE.AAB AS 组件中文,dict_AAAA_AAAD.AAB AS 电梯部件中文 FROM dbo.dict_AAAA_AAAE
+INNER JOIN dbo.dict_AAAA_AAAD ON dict_AAAA_AAAE.AAD=dict_AAAA_AAAD.AAA
+WHERE dict_AAAA_AAAD.AAB='机房';</t>
         </is>
       </c>
     </row>
